--- a/src/test/resources/testdata/batch17excel.xlsx
+++ b/src/test/resources/testdata/batch17excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>firstName</t>
   </si>
@@ -42,43 +42,46 @@
     <t>confirmPassword</t>
   </si>
   <si>
-    <t>nafiseh</t>
-  </si>
-  <si>
     <t>ms</t>
   </si>
   <si>
-    <t>saif</t>
-  </si>
-  <si>
-    <t>nafi123</t>
-  </si>
-  <si>
     <t>Hum@nhrm123</t>
   </si>
   <si>
-    <t>muhayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ms </t>
-  </si>
-  <si>
-    <t>aman</t>
-  </si>
-  <si>
-    <t>muha123</t>
-  </si>
-  <si>
-    <t>raihana</t>
-  </si>
-  <si>
-    <t>adrian</t>
-  </si>
-  <si>
-    <t>rai123</t>
-  </si>
-  <si>
     <t>C:\Users\ayesh\OneDrive\Desktop\SDET\Cucumber\def.jpeg</t>
+  </si>
+  <si>
+    <t>Abi</t>
+  </si>
+  <si>
+    <t>YZ</t>
+  </si>
+  <si>
+    <t>Alghas</t>
+  </si>
+  <si>
+    <t>abialghas07</t>
+  </si>
+  <si>
+    <t>Ayesha</t>
+  </si>
+  <si>
+    <t>Saifullah</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>ayeshasaifullah97</t>
+  </si>
+  <si>
+    <t>Hussain</t>
+  </si>
+  <si>
+    <t>Saaifullah</t>
+  </si>
+  <si>
+    <t>hussain92</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -666,71 +669,71 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/batch17excel.xlsx
+++ b/src/test/resources/testdata/batch17excel.xlsx
@@ -42,46 +42,46 @@
     <t>confirmPassword</t>
   </si>
   <si>
-    <t>ms</t>
-  </si>
-  <si>
     <t>Hum@nhrm123</t>
   </si>
   <si>
     <t>C:\Users\ayesh\OneDrive\Desktop\SDET\Cucumber\def.jpeg</t>
   </si>
   <si>
-    <t>Abi</t>
-  </si>
-  <si>
-    <t>YZ</t>
-  </si>
-  <si>
-    <t>Alghas</t>
-  </si>
-  <si>
-    <t>abialghas07</t>
-  </si>
-  <si>
-    <t>Ayesha</t>
-  </si>
-  <si>
-    <t>Saifullah</t>
-  </si>
-  <si>
     <t>AS</t>
   </si>
   <si>
-    <t>ayeshasaifullah97</t>
-  </si>
-  <si>
-    <t>Hussain</t>
-  </si>
-  <si>
-    <t>Saaifullah</t>
-  </si>
-  <si>
-    <t>hussain92</t>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>Blippi</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>BlippiUs</t>
+  </si>
+  <si>
+    <t>Athn</t>
+  </si>
+  <si>
+    <t>NES</t>
+  </si>
+  <si>
+    <t>athenwes</t>
+  </si>
+  <si>
+    <t>Yuan</t>
+  </si>
+  <si>
+    <t>YHAN</t>
+  </si>
+  <si>
+    <t>yuanyhan</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -669,48 +669,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -718,22 +718,22 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
